--- a/final_data_pipeline/output/311423_elec_options.xlsx
+++ b/final_data_pipeline/output/311423_elec_options.xlsx
@@ -5061,7 +5061,7 @@
         <v>57</v>
       </c>
       <c r="AD50">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE50">
         <v>8000</v>
@@ -5150,7 +5150,7 @@
         <v>57</v>
       </c>
       <c r="AD51">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE51">
         <v>8000</v>
@@ -5239,7 +5239,7 @@
         <v>57</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE52">
         <v>8000</v>
@@ -5328,7 +5328,7 @@
         <v>57</v>
       </c>
       <c r="AD53">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE53">
         <v>8000</v>
@@ -5417,7 +5417,7 @@
         <v>57</v>
       </c>
       <c r="AD54">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE54">
         <v>8000</v>
@@ -5506,7 +5506,7 @@
         <v>57</v>
       </c>
       <c r="AD55">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE55">
         <v>8000</v>
@@ -6129,7 +6129,7 @@
         <v>57</v>
       </c>
       <c r="AD62">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE62">
         <v>8000</v>
@@ -6218,7 +6218,7 @@
         <v>57</v>
       </c>
       <c r="AD63">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE63">
         <v>8000</v>
@@ -6307,7 +6307,7 @@
         <v>57</v>
       </c>
       <c r="AD64">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE64">
         <v>8000</v>
@@ -6396,7 +6396,7 @@
         <v>57</v>
       </c>
       <c r="AD65">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE65">
         <v>8000</v>
@@ -6485,7 +6485,7 @@
         <v>57</v>
       </c>
       <c r="AD66">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE66">
         <v>8000</v>
@@ -6574,7 +6574,7 @@
         <v>57</v>
       </c>
       <c r="AD67">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE67">
         <v>8000</v>
